--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2531227.57041202</v>
+        <v>2627897.546896392</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836232</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095102</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>41.11210535126112</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>339.3634279885152</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>91.82580793753503</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>42.83329955580492</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>60.13719935906725</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>168.8659576635495</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.90301252244922</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>27.37301815328992</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>329.6009216856735</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>164.5381720800732</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>40.91287326691279</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>96.1236499844444</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710081</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292602</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>29.22047734732344</v>
       </c>
       <c r="U13" t="n">
-        <v>128.1592673228012</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>53.19593379674754</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>37.59617708813261</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>113.5103646250779</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>189.7690253314456</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>15.44847849679241</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,19 +2289,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>202.5592531378499</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292629</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868246976</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734101331</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18.26879610203984</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983822</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>113.3951541570347</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292632</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881761</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.5968754185112</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824776</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734101615</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.0167801200824</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983823</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004753</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>96.01060033220536</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>9.013904656704614</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>101.1404823220326</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>19.93833665882203</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,10 +3204,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>4.122427055024775</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3244,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3323,7 +3325,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>163.2704070622396</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>48.37445137896884</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>135.4334972246864</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3755,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873217</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>177.4507143278956</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292724</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>279.3198279352287</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.27252084236</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1463.674302457628</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="C2" t="n">
-        <v>1463.674302457628</v>
+        <v>1333.375306685582</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>975.109608078832</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4334,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1837.140060718708</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1463.674302457628</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1463.674302457628</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.4444960005474</v>
+        <v>289.7554128984182</v>
       </c>
       <c r="C4" t="n">
-        <v>473.4444960005474</v>
+        <v>289.7554128984182</v>
       </c>
       <c r="D4" t="n">
-        <v>473.4444960005474</v>
+        <v>289.7554128984182</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>289.7554128984182</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>142.8654654005078</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005474</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005474</v>
+        <v>471.4038777286579</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1097.103316533935</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C5" t="n">
-        <v>1097.103316533935</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4571,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y5" t="n">
-        <v>1483.703156598057</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4656,37 +4658,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>81.59249510651588</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.546482223454</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="C8" t="n">
-        <v>990.5839652830421</v>
+        <v>1138.977234560301</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>1138.977234560301</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2475.92022773046</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2123.151572460346</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1749.685814199265</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y8" t="n">
-        <v>1359.546482223454</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4883,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>397.6292392479589</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C10" t="n">
-        <v>397.6292392479589</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
         <v>99.59950625323012</v>
@@ -4984,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>686.802849593391</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>686.802849593391</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>686.802849593391</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="U10" t="n">
-        <v>397.6292392479589</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="V10" t="n">
-        <v>397.6292392479589</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="W10" t="n">
-        <v>397.6292392479589</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="X10" t="n">
-        <v>397.6292392479589</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="Y10" t="n">
-        <v>397.6292392479589</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5024,67 +5026,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>4055.47777398904</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
         <v>341.4333205763708</v>
@@ -5112,10 +5114,10 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5124,7 +5126,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5151,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.5269503710301</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C13" t="n">
-        <v>393.5907674431232</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D13" t="n">
-        <v>243.4741280307875</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839441</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5224,25 +5226,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1645.311491004893</v>
       </c>
       <c r="U13" t="n">
-        <v>1737.059203485665</v>
+        <v>1645.311491004893</v>
       </c>
       <c r="V13" t="n">
-        <v>1482.374715279778</v>
+        <v>1390.627002799006</v>
       </c>
       <c r="W13" t="n">
-        <v>1192.957545242817</v>
+        <v>1101.209832762045</v>
       </c>
       <c r="X13" t="n">
-        <v>964.9679943448</v>
+        <v>873.220281864028</v>
       </c>
       <c r="Y13" t="n">
-        <v>744.1754152012699</v>
+        <v>873.220281864028</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,7 +5263,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5273,55 +5275,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
         <v>341.4333205763708</v>
@@ -5349,10 +5351,10 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5361,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5388,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.4168978689405</v>
+        <v>655.9531749224913</v>
       </c>
       <c r="C16" t="n">
-        <v>540.4807149410336</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286979</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5458,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1902.610199643343</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1710.924315470169</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1489.157700039695</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.240599230347</v>
+        <v>1200.054833165339</v>
       </c>
       <c r="V16" t="n">
-        <v>1629.264662777688</v>
+        <v>945.3703449594518</v>
       </c>
       <c r="W16" t="n">
-        <v>1339.847492740728</v>
+        <v>655.9531749224913</v>
       </c>
       <c r="X16" t="n">
-        <v>1111.85794184271</v>
+        <v>655.9531749224913</v>
       </c>
       <c r="Y16" t="n">
-        <v>891.0653626991802</v>
+        <v>655.9531749224913</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5494,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5519,40 +5521,40 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1586.925993846823</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518747</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.23671557753</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906984</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,22 +5624,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.9043113423046</v>
+        <v>210.2179684131196</v>
       </c>
       <c r="C19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689054</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258581</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384224</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783372</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413767</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>391.8664332433593</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423046</v>
+        <v>391.8664332433593</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5747,55 +5749,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.832524924161</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844494</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903276</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5862,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>425.7583423057196</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="C22" t="n">
-        <v>425.7583423057196</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="D22" t="n">
-        <v>425.7583423057196</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5935,25 +5937,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V22" t="n">
-        <v>1163.957642384228</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W22" t="n">
-        <v>874.540472347267</v>
+        <v>1118.12034758214</v>
       </c>
       <c r="X22" t="n">
-        <v>646.5509214492497</v>
+        <v>890.1307966841224</v>
       </c>
       <c r="Y22" t="n">
-        <v>425.7583423057196</v>
+        <v>669.3382175405923</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5968,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089255</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277722</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.56914656307</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811478</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2536.153662641305</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3515.90593486795</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>4018.878405747285</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973119</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161849</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549336</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494781</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763631</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089812</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468487</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193577</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232022</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454337</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.00003200879</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426844</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902946</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549545</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.95810714206</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.52022063554</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313395</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447811</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216068</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487867</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282334</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.80810951738</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>260.9043113423046</v>
+        <v>508.5026418377233</v>
       </c>
       <c r="C25" t="n">
-        <v>260.9043113423046</v>
+        <v>508.5026418377233</v>
       </c>
       <c r="D25" t="n">
-        <v>260.9043113423046</v>
+        <v>508.5026418377233</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>360.5895482553302</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>360.5895482553302</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300492</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300492</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953297</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442056</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927011</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892249</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518526</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952185</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931526</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501052</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1428.350406746471</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1428.350406746471</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>1138.933236709511</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>910.9436858114932</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423046</v>
+        <v>690.1511066679631</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>284.440165407419</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972641</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1287.04018076798</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2265.590483597806</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2812.369300656587</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.33395098604</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.59277249732</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216193</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763711</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089892</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390202</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193665</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320307</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454345</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008798</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426852</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6342,7 +6344,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>873.220281864028</v>
+        <v>3627.778070649848</v>
       </c>
       <c r="C28" t="n">
-        <v>704.2840989361212</v>
+        <v>3458.841887721941</v>
       </c>
       <c r="D28" t="n">
-        <v>704.2840989361212</v>
+        <v>3308.725248309606</v>
       </c>
       <c r="E28" t="n">
-        <v>556.371005353728</v>
+        <v>3160.812154727213</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>3160.812154727213</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>3160.812154727213</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.59496794507</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763416</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210351</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159227</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607722</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207271</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913135</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057174</v>
+        <v>4207.432514129718</v>
       </c>
       <c r="V28" t="n">
-        <v>1475.554715057174</v>
+        <v>3952.748025923831</v>
       </c>
       <c r="W28" t="n">
-        <v>1475.554715057174</v>
+        <v>3855.767621547866</v>
       </c>
       <c r="X28" t="n">
-        <v>1247.565164159156</v>
+        <v>3627.778070649848</v>
       </c>
       <c r="Y28" t="n">
-        <v>1026.772585015626</v>
+        <v>3627.778070649848</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>4074.966626751958</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4469.740993109136</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4718.027354864818</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6582,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3694.928538179046</v>
+        <v>876.4469737784534</v>
       </c>
       <c r="C31" t="n">
-        <v>3525.992355251139</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D31" t="n">
-        <v>3525.992355251139</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E31" t="n">
-        <v>3378.079261668745</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F31" t="n">
-        <v>3231.189314170835</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>3063.486477545554</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U31" t="n">
-        <v>4488.948855545364</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V31" t="n">
-        <v>4488.948855545364</v>
+        <v>1568.305187789184</v>
       </c>
       <c r="W31" t="n">
-        <v>4199.531685508404</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="X31" t="n">
-        <v>4097.369582152815</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="Y31" t="n">
-        <v>3876.577003009285</v>
+        <v>1058.095438608693</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6688,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>443.8820807562848</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1098.605412891584</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M32" t="n">
-        <v>2368.748013620957</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N32" t="n">
-        <v>3348.500285847604</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6753,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6810,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.540472347267</v>
+        <v>676.4156786811474</v>
       </c>
       <c r="C34" t="n">
-        <v>854.4007383484569</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="D34" t="n">
-        <v>704.2840989361212</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="E34" t="n">
-        <v>556.371005353728</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6880,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1952.179398372356</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1730.412782941882</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1441.309916067525</v>
       </c>
       <c r="V34" t="n">
-        <v>1163.957642384228</v>
+        <v>1186.625427861638</v>
       </c>
       <c r="W34" t="n">
-        <v>874.540472347267</v>
+        <v>897.2082578246775</v>
       </c>
       <c r="X34" t="n">
-        <v>874.540472347267</v>
+        <v>897.2082578246775</v>
       </c>
       <c r="Y34" t="n">
-        <v>874.540472347267</v>
+        <v>676.4156786811474</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6920,10 +6922,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6935,28 +6937,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1682.725100522032</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2642.582663047919</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6971,16 +6973,16 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7120,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.9043113423046</v>
+        <v>730.2297869963112</v>
       </c>
     </row>
     <row r="38">
@@ -7166,34 +7168,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366029</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195858</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3697.974447301842</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7272,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,7 +7283,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
         <v>2043.809373447819</v>
@@ -7290,7 +7292,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>673.3827746590082</v>
+        <v>343.0033510423848</v>
       </c>
       <c r="C40" t="n">
-        <v>673.3827746590082</v>
+        <v>343.0033510423848</v>
       </c>
       <c r="D40" t="n">
-        <v>673.3827746590082</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E40" t="n">
-        <v>525.4696810766151</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F40" t="n">
-        <v>378.5797335787047</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,16 +7335,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7354,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W40" t="n">
-        <v>901.3723255570255</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X40" t="n">
-        <v>673.3827746590082</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y40" t="n">
-        <v>673.3827746590082</v>
+        <v>391.8664332433634</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551633</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001598</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074199</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972664</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193958</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420605</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>3962.897130029547</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107238</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839444</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789526</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102191</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878962</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1120.662598458018</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C43" t="n">
-        <v>951.7264155301116</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D43" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7591,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1777.100320318951</v>
       </c>
       <c r="T43" t="n">
-        <v>1866.513008862232</v>
+        <v>1555.333704888477</v>
       </c>
       <c r="U43" t="n">
-        <v>1866.513008862232</v>
+        <v>1266.230838014121</v>
       </c>
       <c r="V43" t="n">
-        <v>1866.513008862232</v>
+        <v>1011.546349808234</v>
       </c>
       <c r="W43" t="n">
-        <v>1751.093193329805</v>
+        <v>722.1291797712734</v>
       </c>
       <c r="X43" t="n">
-        <v>1523.103642431788</v>
+        <v>722.1291797712734</v>
       </c>
       <c r="Y43" t="n">
-        <v>1302.311063288258</v>
+        <v>722.1291797712734</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551633</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001598</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
-        <v>137.557933208927</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074199</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972664</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1849.525439218842</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2383.057343890767</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3362.809616117413</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750059</v>
+        <v>3865.782086996751</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107238</v>
+        <v>4260.556453353929</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468569</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7746,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.8526275526848</v>
+        <v>3231.862074886603</v>
       </c>
       <c r="C46" t="n">
-        <v>490.9164446247779</v>
+        <v>3231.862074886603</v>
       </c>
       <c r="D46" t="n">
-        <v>340.7998052124422</v>
+        <v>3231.862074886603</v>
       </c>
       <c r="E46" t="n">
-        <v>192.8867116300491</v>
+        <v>3231.862074886603</v>
       </c>
       <c r="F46" t="n">
-        <v>192.8867116300491</v>
+        <v>3084.972127388693</v>
       </c>
       <c r="G46" t="n">
-        <v>192.8867116300491</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839444</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.57685067423</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="U46" t="n">
-        <v>1445.473983799873</v>
+        <v>4399.118398302892</v>
       </c>
       <c r="V46" t="n">
-        <v>1190.789495593986</v>
+        <v>4144.433910097006</v>
       </c>
       <c r="W46" t="n">
-        <v>901.3723255570255</v>
+        <v>3862.292669758391</v>
       </c>
       <c r="X46" t="n">
-        <v>901.3723255570255</v>
+        <v>3634.303118860373</v>
       </c>
       <c r="Y46" t="n">
-        <v>841.5010923829245</v>
+        <v>3413.510539716843</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8699,13 +8701,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>20.70318561719034</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>198.7154374299952</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>29.61882225792044</v>
+        <v>241.9338129178262</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>288.0478149561023</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,10 +9652,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>57.67224444724792</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.830180948076304e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9878,25 +9880,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>219.9458872952608</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.017475755656747</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>161.0524397463283</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10361,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>226.7688596193101</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>295.4822118493981</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>139.3563597571383</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,16 +10837,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>103.7862464855129</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277314</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>114.2189875964752</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>294.8707872801623</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400264</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>190.3284719288457</v>
       </c>
       <c r="U13" t="n">
-        <v>158.0525708828117</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>35.73621887329979</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>214.5414662356954</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>53.73645647354989</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>2.335964134057178</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>130.9854841497768</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>83.96374519874107</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>128.1651665445293</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004751</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>172.8166840485782</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.81520006185491</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>190.5123980043857</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>243.1237386671234</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>124.5691730670046</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>147.3084844398058</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>185.6465982764171</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25360,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>55.31424628985522</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>131.4575288029685</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>30.59231103434186</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>12.31831100354634</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>7.203170401362343</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>159.3121325097348</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>795136.1784970291</v>
+        <v>795136.178497029</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>795136.1784970291</v>
+        <v>795136.1784970294</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795136.1784970291</v>
+        <v>795136.1784970292</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>795136.1784970292</v>
+        <v>795136.1784970291</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>795136.1784970292</v>
+        <v>795136.1784970291</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448195</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448194</v>
-      </c>
       <c r="E2" t="n">
+        <v>615476.7696748236</v>
+      </c>
+      <c r="F2" t="n">
+        <v>615476.7696748236</v>
+      </c>
+      <c r="G2" t="n">
+        <v>615476.7696748233</v>
+      </c>
+      <c r="H2" t="n">
         <v>615476.7696748237</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>615476.7696748236</v>
+      </c>
+      <c r="J2" t="n">
+        <v>615476.7696748236</v>
+      </c>
+      <c r="K2" t="n">
+        <v>615476.7696748237</v>
+      </c>
+      <c r="L2" t="n">
         <v>615476.7696748241</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
+        <v>615476.7696748242</v>
+      </c>
+      <c r="N2" t="n">
+        <v>615476.7696748239</v>
+      </c>
+      <c r="O2" t="n">
         <v>615476.769674824</v>
       </c>
-      <c r="H2" t="n">
-        <v>615476.7696748241</v>
-      </c>
-      <c r="I2" t="n">
-        <v>615476.7696748241</v>
-      </c>
-      <c r="J2" t="n">
-        <v>615476.7696748242</v>
-      </c>
-      <c r="K2" t="n">
-        <v>615476.7696748242</v>
-      </c>
-      <c r="L2" t="n">
-        <v>615476.7696748244</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615476.7696748241</v>
-      </c>
-      <c r="N2" t="n">
-        <v>615476.7696748243</v>
-      </c>
-      <c r="O2" t="n">
-        <v>615476.7696748242</v>
-      </c>
       <c r="P2" t="n">
-        <v>615476.7696748241</v>
+        <v>615476.7696748234</v>
       </c>
     </row>
     <row r="3">
@@ -26384,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-4.488640149550814e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.820833404053701e-09</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,7 +26401,7 @@
         <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,28 +26420,28 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709183</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="F4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709186</v>
-      </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709205</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709201</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709188</v>
@@ -26448,16 +26450,16 @@
         <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709183</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709184</v>
       </c>
     </row>
     <row r="5">
@@ -26488,16 +26490,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.5182537136</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371358</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26506,10 +26508,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-228726.1820255639</v>
       </c>
       <c r="C6" t="n">
+        <v>361241.6971889805</v>
+      </c>
+      <c r="D6" t="n">
         <v>361241.6971889803</v>
       </c>
-      <c r="D6" t="n">
-        <v>361241.6971889802</v>
-      </c>
       <c r="E6" t="n">
-        <v>-229903.7705693884</v>
+        <v>-229903.7705693886</v>
       </c>
       <c r="F6" t="n">
+        <v>497473.6434240182</v>
+      </c>
+      <c r="G6" t="n">
+        <v>497473.6434240178</v>
+      </c>
+      <c r="H6" t="n">
+        <v>497473.6434240183</v>
+      </c>
+      <c r="I6" t="n">
+        <v>497473.6434240197</v>
+      </c>
+      <c r="J6" t="n">
+        <v>321050.4242314252</v>
+      </c>
+      <c r="K6" t="n">
+        <v>497473.6434240164</v>
+      </c>
+      <c r="L6" t="n">
         <v>497473.6434240186</v>
       </c>
-      <c r="G6" t="n">
+      <c r="M6" t="n">
+        <v>367831.3285850739</v>
+      </c>
+      <c r="N6" t="n">
+        <v>497473.6434240182</v>
+      </c>
+      <c r="O6" t="n">
         <v>497473.6434240185</v>
       </c>
-      <c r="H6" t="n">
-        <v>497473.6434240186</v>
-      </c>
-      <c r="I6" t="n">
-        <v>497473.6434240186</v>
-      </c>
-      <c r="J6" t="n">
-        <v>321050.4242314257</v>
-      </c>
-      <c r="K6" t="n">
-        <v>497473.6434240187</v>
-      </c>
-      <c r="L6" t="n">
-        <v>497473.643424019</v>
-      </c>
-      <c r="M6" t="n">
-        <v>367831.3285850738</v>
-      </c>
-      <c r="N6" t="n">
-        <v>497473.6434240188</v>
-      </c>
-      <c r="O6" t="n">
-        <v>497473.6434240187</v>
-      </c>
       <c r="P6" t="n">
-        <v>497473.6434240186</v>
+        <v>497473.6434240179</v>
       </c>
     </row>
   </sheetData>
@@ -26756,10 +26758,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593296</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593296</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26771,13 +26773,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,13 +26980,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-8.928010730693752e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.501110429875553e-12</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>313.5709362694218</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>42.5669420837466</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>54.60815470903414</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>124.476502703246</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,13 +27590,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>294.5458422616157</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>180.3750110538635</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>123.9289676594881</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>259.1499801833011</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>52.3294483865883</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>163.2140863900617</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>105.7523187132451</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>128.9114554736399</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28090,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-5.142369289011372e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28770,7 +28772,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -30511,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32570,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681588</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844658</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974796</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953981</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003798</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623179</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574979</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095008</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099044</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.99498197464</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.099994678168</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563563</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806931</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451116</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934527</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502561</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798527</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752241</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026433</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353149</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138785</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233463</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837912</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970239</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002918</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905538</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238307</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898478</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462212</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430534</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311876</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742007</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297387</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702019</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098814</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316426</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883109</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085995</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802164</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895877</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712197</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553029</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112278</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780292</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681587</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844658</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974796</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495398</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003797</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623178</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574977</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095005</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099042</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746399</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781679</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563563</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806928</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451116</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934527</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502561</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798526</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175224</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026524</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353149</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138784</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233461</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683791</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970238</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002917</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987479</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905538</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238306</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898476</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462212</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430533</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311875</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742005</v>
       </c>
       <c r="J28" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297387</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702019</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098813</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316426</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883108</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085995</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802164</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895877</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712196</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553028</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112276</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780292</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138792</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34775,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
@@ -35419,13 +35421,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>419.4651718365622</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>654.3055518223274</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35659,7 +35661,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35668,7 +35670,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>485.2089366502526</v>
+        <v>697.5239273101583</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35902,7 +35904,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36121,7 +36123,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>625.2391015115028</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36130,7 +36132,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>728.5192284577547</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
@@ -36139,7 +36141,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36218,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407856</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.336699126564</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923307</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230577</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>989.648759824894</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882176</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>456.4342306666184</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037185</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222421</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597665</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609559</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340044</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013279</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.306104600458</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525794</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859615</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306594</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443191</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701975</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934832</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675395</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226392</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451099</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789332</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687117</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553991</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>675.5360016875914</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230574</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129097</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509628</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908531</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037184</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152066</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453598567</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609559</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340042</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013278</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004577</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525793</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859614</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127264</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306591</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.047659544319</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701974</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934832</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675394</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226392</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451099</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789329</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36844,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36853,7 +36855,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>60.63067429788153</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>351.8394407150408</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
@@ -37081,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>734.8218605075292</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37090,7 +37092,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>751.0723262417303</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>678.2774755873651</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>502.5482327048849</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200636</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>512.9809738158472</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>750.4609016724946</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282456</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134005</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2627897.546896392</v>
+        <v>2622175.934928507</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836232</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095102</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>339.3634279885152</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -712,22 +712,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>42.83329955580492</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>168.8659576635495</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>160.4034471042927</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>71.13219726967624</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>27.37301815328992</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>329.6009216856735</v>
+        <v>49.36745981595564</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>96.1236499844444</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292602</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>29.22047734732344</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>217.4025801238267</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>53.19593379674754</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C19" t="n">
-        <v>113.5103646250779</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314456</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>15.07437110675825</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>202.5592531378499</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292629</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868246976</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734101331</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983822</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>113.3951541570347</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>37.59617708813261</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292632</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881761</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.5968754185112</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824776</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734101615</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983823</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004753</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.769025331442</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>96.01060033220536</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V31" t="n">
-        <v>9.013904656704614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>4.122427055024775</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>8.558716047062271</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>163.2704070622396</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.37445137896884</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>177.4507143278956</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>279.3198279352287</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1702.337823625994</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1333.375306685582</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>975.109608078832</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.477155601806</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y2" t="n">
-        <v>1702.337823625994</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4415,13 +4415,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289.7554128984182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>289.7554128984182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>289.7554128984182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>289.7554128984182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>142.8654654005078</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286579</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286579</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>471.4038777286579</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y4" t="n">
-        <v>471.4038777286579</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>959.5129866402885</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1723.11807687718</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>1349.6523186161</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y5" t="n">
-        <v>959.5129866402885</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,49 +4646,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>656.2782798936299</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>81.59249510651588</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1507.939751500713</v>
+        <v>1005.372199209267</v>
       </c>
       <c r="C8" t="n">
-        <v>1138.977234560301</v>
+        <v>636.4096822688557</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.977234560301</v>
+        <v>278.1439836621052</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1894.539591564834</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y8" t="n">
-        <v>1894.539591564834</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="9">
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5993065148977</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5993065148977</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T10" t="n">
-        <v>268.5993065148977</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U10" t="n">
-        <v>268.5993065148977</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V10" t="n">
-        <v>268.5993065148977</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W10" t="n">
-        <v>268.5993065148977</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X10" t="n">
-        <v>268.5993065148977</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.5993065148977</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5026,37 +5026,37 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2628.734306600803</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3175.513123659585</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>4055.47777398904</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
         <v>4470.748294107237</v>
@@ -5068,19 +5068,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5126,7 +5126,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>873.220281864028</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C13" t="n">
-        <v>704.2840989361212</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1645.311491004893</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1645.311491004893</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1390.627002799006</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>1101.209832762045</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X13" t="n">
-        <v>873.220281864028</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y13" t="n">
-        <v>873.220281864028</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5278,52 +5278,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846824</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5348,22 +5348,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.9531749224913</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C16" t="n">
-        <v>487.0169919945844</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D16" t="n">
-        <v>487.0169919945844</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1038984121913</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1902.610199643343</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1710.924315470169</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1489.157700039695</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1200.054833165339</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>945.3703449594518</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>655.9531749224913</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>655.9531749224913</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>655.9531749224913</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5497,40 +5497,40 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1797.117834600129</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2330.649739272054</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,22 +5624,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.2179684131196</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689054</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258581</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384224</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783372</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413767</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433593</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y19" t="n">
-        <v>391.8664332433593</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5752,46 +5752,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N20" t="n">
-        <v>2812.369300656583</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O20" t="n">
-        <v>3692.333950986038</v>
+        <v>3907.560977731604</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4302.335344088782</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>487.6897527103525</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C22" t="n">
-        <v>487.6897527103525</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="D22" t="n">
-        <v>487.6897527103525</v>
+        <v>110.7876719299684</v>
       </c>
       <c r="E22" t="n">
-        <v>339.7766591279594</v>
+        <v>110.7876719299684</v>
       </c>
       <c r="F22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1577.410141987875</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1322.725653781988</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W22" t="n">
-        <v>1118.12034758214</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X22" t="n">
-        <v>890.1307966841224</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y22" t="n">
-        <v>669.3382175405923</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551623</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001588</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277722</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.56914656307</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811478</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2536.153662641305</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3515.90593486795</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4018.878405747285</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107238</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973119</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161849</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549336</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494781</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763631</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089812</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468487</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390113</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232022</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.00003200879</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426844</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902946</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549545</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.95810714206</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.52022063554</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313395</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447811</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216068</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487867</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282334</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.80810951738</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>508.5026418377233</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C25" t="n">
-        <v>508.5026418377233</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D25" t="n">
-        <v>508.5026418377233</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E25" t="n">
-        <v>360.5895482553302</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553302</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300492</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300492</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442056</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927011</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892249</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931526</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501052</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1428.350406746471</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>1428.350406746471</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W25" t="n">
-        <v>1138.933236709511</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X25" t="n">
-        <v>910.9436858114932</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y25" t="n">
-        <v>690.1511066679631</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="26">
@@ -6214,43 +6214,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.440165407419</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972641</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1287.04018076798</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2265.590483597806</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2812.369300656587</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3692.33395098604</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.59277249732</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216193</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763711</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089892</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390202</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193665</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320307</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454345</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008798</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426852</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6344,13 +6344,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3627.778070649848</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>3458.841887721941</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>3308.725248309606</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>3160.812154727213</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>3160.812154727213</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>3160.812154727213</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.59496794507</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763416</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210351</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159227</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607722</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207271</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913135</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4496.535381004074</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>4496.535381004074</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>4207.432514129718</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>3952.748025923831</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>3855.767621547866</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>3627.778070649848</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>3627.778070649848</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3195.001976422504</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>4074.966626751958</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4469.740993109136</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4718.027354864818</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,64 +6518,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>876.4469737784534</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>707.5107908505465</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.410141987875</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1568.305187789184</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1278.888017752223</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1278.888017752223</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1058.095438608693</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>443.8820807562848</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1098.605412891584</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1549.639626139993</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.189928969822</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3507.942201196468</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468568</v>
@@ -6779,19 +6779,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,22 +6809,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>676.4156786811474</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1952.179398372356</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1730.412782941882</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1441.309916067525</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1186.625427861638</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>897.2082578246775</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>897.2082578246775</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.4156786811474</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
@@ -6934,7 +6934,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6943,46 +6943,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2642.582663047919</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3189.361480106701</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7013,13 +7013,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320242</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>730.2297869963112</v>
+        <v>567.9454261809101</v>
       </c>
       <c r="C37" t="n">
-        <v>561.2936040684043</v>
+        <v>399.0092432530032</v>
       </c>
       <c r="D37" t="n">
-        <v>411.1769646560685</v>
+        <v>399.0092432530032</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>251.0961496706101</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>104.2062021726997</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.240599230347</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V37" t="n">
-        <v>1412.556111024461</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W37" t="n">
-        <v>1123.1389409875</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="X37" t="n">
-        <v>895.1493900894825</v>
+        <v>970.38647015468</v>
       </c>
       <c r="Y37" t="n">
-        <v>730.2297869963112</v>
+        <v>749.5938910111498</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176197</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366029</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195858</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3195.001976422504</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3697.974447301842</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>343.0033510423848</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>343.0033510423848</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7359,25 +7359,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689059</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258585</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
         <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783413</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413808</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X40" t="n">
-        <v>391.8664332433634</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y40" t="n">
-        <v>391.8664332433634</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7402,43 +7402,43 @@
         <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M41" t="n">
-        <v>2536.15366264131</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N41" t="n">
-        <v>3082.932479700092</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O41" t="n">
-        <v>3962.897130029547</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
         <v>4461.783306331037</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102191</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1777.100320318951</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1555.333704888477</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1266.230838014121</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546349808234</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>722.1291797712734</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>722.1291797712734</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>722.1291797712734</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7627,67 +7627,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1849.525439218842</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M44" t="n">
-        <v>2383.057343890767</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N44" t="n">
-        <v>3362.809616117413</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O44" t="n">
-        <v>3865.782086996751</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353929</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7730,10 +7730,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7745,16 +7745,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3231.862074886603</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>3231.862074886603</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>3231.862074886603</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>3231.862074886603</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>3084.972127388693</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>4688.221265177249</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>4688.221265177249</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>4399.118398302892</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>4144.433910097006</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>3862.292669758391</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>3634.303118860373</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>3413.510539716843</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8701,13 +8701,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
-        <v>20.70318561719034</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L14" t="n">
-        <v>198.7154374299952</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>241.9338129178262</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>176.2173930448432</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>170.1140909277309</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,10 +9652,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>57.67224444724792</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.830180948076304e-12</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9880,25 +9880,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>219.9458872952608</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.017475755656747</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>161.0524397463283</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,22 +10591,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>139.3563597571383</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,16 +10837,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P38" t="n">
-        <v>103.7862464855129</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,25 +11065,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>114.2189875964752</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>294.8707872801623</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>190.3284719288457</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>69.12041821276426</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>161.5631840798975</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.73621887329979</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C19" t="n">
-        <v>53.73645647354989</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>130.346676916173</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>83.96374519874107</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004751</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>172.8166840485782</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>214.5414662356954</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>190.5123980043857</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V31" t="n">
-        <v>243.1237386671234</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>185.6465982764171</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>157.467092211966</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.31424628985522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>131.4575288029685</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>12.31831100354634</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>7.203170401362343</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>795136.178497029</v>
+        <v>795136.1784970292</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>795136.1784970294</v>
+        <v>795136.1784970291</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795136.1784970292</v>
+        <v>795136.1784970291</v>
       </c>
     </row>
     <row r="11">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748239</v>
       </c>
       <c r="F2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="G2" t="n">
-        <v>615476.7696748233</v>
+        <v>615476.7696748235</v>
       </c>
       <c r="H2" t="n">
         <v>615476.7696748237</v>
@@ -26337,25 +26337,25 @@
         <v>615476.7696748236</v>
       </c>
       <c r="J2" t="n">
+        <v>615476.7696748239</v>
+      </c>
+      <c r="K2" t="n">
         <v>615476.7696748236</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>615476.7696748237</v>
       </c>
-      <c r="L2" t="n">
-        <v>615476.7696748241</v>
-      </c>
       <c r="M2" t="n">
-        <v>615476.7696748242</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="N2" t="n">
-        <v>615476.7696748239</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="O2" t="n">
-        <v>615476.769674824</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="P2" t="n">
-        <v>615476.7696748234</v>
+        <v>615476.7696748236</v>
       </c>
     </row>
     <row r="3">
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.488640149550814e-11</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.820833404053701e-09</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="G4" t="n">
-        <v>21619.60799709183</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="I4" t="n">
-        <v>21619.60799709205</v>
-      </c>
       <c r="J4" t="n">
-        <v>21619.60799709201</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="M4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709185</v>
-      </c>
       <c r="O4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709188</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26490,10 +26490,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.5182537136</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371358</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26502,13 +26502,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228726.1820255639</v>
+        <v>-228726.1820255637</v>
       </c>
       <c r="C6" t="n">
-        <v>361241.6971889805</v>
+        <v>361241.6971889803</v>
       </c>
       <c r="D6" t="n">
-        <v>361241.6971889803</v>
+        <v>361241.6971889804</v>
       </c>
       <c r="E6" t="n">
-        <v>-229903.7705693886</v>
+        <v>-230575.7254716463</v>
       </c>
       <c r="F6" t="n">
-        <v>497473.6434240182</v>
+        <v>496801.6885217603</v>
       </c>
       <c r="G6" t="n">
-        <v>497473.6434240178</v>
+        <v>496801.6885217603</v>
       </c>
       <c r="H6" t="n">
-        <v>497473.6434240183</v>
+        <v>496801.6885217603</v>
       </c>
       <c r="I6" t="n">
-        <v>497473.6434240197</v>
+        <v>496801.6885217601</v>
       </c>
       <c r="J6" t="n">
-        <v>321050.4242314252</v>
+        <v>320378.4693291673</v>
       </c>
       <c r="K6" t="n">
-        <v>497473.6434240164</v>
+        <v>496801.6885217602</v>
       </c>
       <c r="L6" t="n">
-        <v>497473.6434240186</v>
+        <v>496801.6885217603</v>
       </c>
       <c r="M6" t="n">
-        <v>367831.3285850739</v>
+        <v>367159.3736828155</v>
       </c>
       <c r="N6" t="n">
-        <v>497473.6434240182</v>
+        <v>496801.6885217602</v>
       </c>
       <c r="O6" t="n">
-        <v>497473.6434240185</v>
+        <v>496801.6885217602</v>
       </c>
       <c r="P6" t="n">
-        <v>497473.6434240179</v>
+        <v>496801.6885217602</v>
       </c>
     </row>
   </sheetData>
@@ -26758,10 +26758,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26773,13 +26773,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26980,13 +26980,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-8.928010730693752e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>42.5669420837466</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>99.1084150172357</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>124.476502703246</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,22 +27590,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>28.98780970275089</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>180.3750110538635</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>225.8344915517609</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>96.11462382895159</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>259.1499801833011</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>52.3294483865883</v>
+        <v>332.5629102563062</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>3.806844538052008</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>128.9114554736399</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28772,7 +28772,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31861,7 +31861,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003798</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678168</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138785</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970239</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098814</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681587</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495398</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003797</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623178</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574977</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095005</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099042</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746399</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781679</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806928</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798526</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175224</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026524</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138784</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233461</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.647816683791</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970238</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002917</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987479</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238306</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898476</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430533</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311875</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742005</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098813</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883108</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712196</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553028</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112276</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138792</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
@@ -35421,13 +35421,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
-        <v>419.4651718365622</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35509,7 +35509,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L14" t="n">
-        <v>654.3055518223274</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35670,7 +35670,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>697.5239273101583</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>728.5192284577547</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>420.9083957314504</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407856</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.336699126564</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923307</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230577</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.648759824894</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882176</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>456.4342306666184</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037185</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222421</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597665</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340044</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306594</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443191</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701975</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934832</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675395</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226392</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451099</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789332</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687117</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865553991</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>675.5360016875914</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230574</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129097</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509628</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908531</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037184</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152066</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453598567</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340042</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013278</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004577</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859614</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127264</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306591</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.047659544319</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701974</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934832</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675394</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226392</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451099</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789329</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36855,7 +36855,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>60.63067429788153</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>351.8394407150408</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37092,7 +37092,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37311,22 +37311,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>678.2774755873651</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882193</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P38" t="n">
-        <v>502.5482327048849</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>512.9809738158472</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>750.4609016724946</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.402182134005</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2622175.934928507</v>
+        <v>2625581.426052956</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095091</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>254.7848454013382</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>270.6226856612333</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>51.82011796124971</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>160.4034471042927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>71.13219726967624</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>38.85099796338687</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>49.36745981595564</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>397.5255987666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>277.4976625672604</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>217.4025801238267</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292578</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.26879610203982</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>51.06561173382029</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.6898441249706</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>15.07437110675825</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>37.59617708813261</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>1.487334137518444</v>
       </c>
     </row>
     <row r="26">
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>156.3460220671599</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>129.576597042179</v>
       </c>
       <c r="U31" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>15.42290135054944</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>25.639867403017</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>8.558716047062271</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>113.5103646250816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3954,10 +3954,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>181.1375494785995</v>
+        <v>172.4209394294446</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>311.3014115186858</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1036.358670716696</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4424,7 +4424,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>245.45494510253</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1732.515907621104</v>
+        <v>770.969123535386</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2644.805537522011</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2468.628049836181</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2468.628049836181</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2214.866264474272</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1883.803377130702</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>1531.034721860588</v>
       </c>
       <c r="X5" t="n">
-        <v>1894.539591564834</v>
+        <v>1157.568963599508</v>
       </c>
       <c r="Y5" t="n">
-        <v>1732.515907621104</v>
+        <v>1157.568963599508</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>656.2782798936299</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>506.1616404812942</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>506.1616404812942</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="F7" t="n">
-        <v>359.2716929833838</v>
+        <v>262.1862143682814</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>93.18641410661382</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>93.18641410661382</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1005.372199209267</v>
+        <v>1979.48636361053</v>
       </c>
       <c r="C8" t="n">
-        <v>636.4096822688557</v>
+        <v>1610.523846670118</v>
       </c>
       <c r="D8" t="n">
-        <v>278.1439836621052</v>
+        <v>1252.258148063368</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>866.4698954651235</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>455.4839906755159</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y8" t="n">
-        <v>1391.972039273389</v>
+        <v>2366.086203674652</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5032,43 +5032,43 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.23381931859</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827578</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5123,10 +5123,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5135,7 +5135,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902953</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.5269503710301</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C13" t="n">
-        <v>393.5907674431232</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D13" t="n">
-        <v>243.4741280307875</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5202,16 +5202,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1394.5264554292</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.556111024461</v>
+        <v>1394.5264554292</v>
       </c>
       <c r="W13" t="n">
-        <v>1192.957545242817</v>
+        <v>1105.109285392239</v>
       </c>
       <c r="X13" t="n">
-        <v>964.9679943448</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="Y13" t="n">
-        <v>744.1754152012699</v>
+        <v>877.1197344942216</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5281,49 +5281,49 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1070.832524924162</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.86673817257</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2055.398642844495</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903277</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3678.485594538922</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4391.840681985868</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>242.4509819463048</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C16" t="n">
-        <v>242.4509819463048</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D16" t="n">
-        <v>242.4509819463048</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1904.762040110946</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1650.077551905059</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>1360.660381868098</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423046</v>
+        <v>911.8782518265509</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5518,43 +5518,43 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5585,10 +5585,10 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5597,10 +5597,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838516</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858343</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423041</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5752,37 +5752,37 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2047.844055175503</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3027.59632740215</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3907.560977731604</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P20" t="n">
-        <v>4302.335344088782</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.9043113423041</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>260.9043113423041</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>110.7876719299684</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>110.7876719299684</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838516</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858343</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423041</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -6007,34 +6007,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,16 +6098,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.4168978689405</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C25" t="n">
-        <v>540.4807149410336</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D25" t="n">
         <v>390.3640755286979</v>
@@ -6135,16 +6135,16 @@
         <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1629.264662777688</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>1339.847492740728</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>1111.85794184271</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>891.0653626991802</v>
+        <v>390.3640755286979</v>
       </c>
     </row>
     <row r="26">
@@ -6205,25 +6205,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6244,13 +6244,13 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,10 +6448,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6460,55 +6460,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>361.8228945579559</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1825.458014546947</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1536.355147672591</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1281.670659466704</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>992.2534894297431</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>764.2639385317258</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>543.4713593881957</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6709,43 +6709,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>278.8425593065537</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6888,22 +6888,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>460.4910241367934</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
@@ -6934,7 +6934,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6949,40 +6949,40 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>567.9454261809101</v>
+        <v>558.6274977408367</v>
       </c>
       <c r="C37" t="n">
-        <v>399.0092432530032</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="D37" t="n">
-        <v>399.0092432530032</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E37" t="n">
-        <v>251.0961496706101</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F37" t="n">
-        <v>104.2062021726997</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U37" t="n">
-        <v>1453.060509258584</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V37" t="n">
-        <v>1198.376021052697</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W37" t="n">
-        <v>1198.376021052697</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X37" t="n">
-        <v>970.38647015468</v>
+        <v>805.3189328470103</v>
       </c>
       <c r="Y37" t="n">
-        <v>749.5938910111498</v>
+        <v>584.5263537034801</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320243</v>
@@ -7271,16 +7271,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,25 +7356,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
         <v>277.2094992786341</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,67 +7396,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1898.858917622687</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294612</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353394</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7602,7 +7602,7 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
         <v>1015.408799357142</v>
@@ -7639,7 +7639,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089264</v>
@@ -7651,16 +7651,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1237.706702364128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193957</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420604</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7733,7 +7733,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7839,19 +7839,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1278.897944178337</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1024.21345597245</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>734.7962859354897</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
   </sheetData>
@@ -8072,10 +8072,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>29.61882225791996</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>288.0478149561032</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>79.70465870845291</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,28 +9166,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>249.4515018379481</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>170.1140909277309</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>288.0478149561023</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10357,22 +10357,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>189.7998007892644</v>
+        <v>39.4832155777267</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10597,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>344.7025836476828</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>8.714175638352515</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>69.12041821276426</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>161.5631840798975</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23703,13 +23703,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>235.1462264717926</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.14213605696668</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>130.346676916173</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>214.5414662356954</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>217.0973192145763</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,13 +24651,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>63.20292720900929</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>89.97235223399016</v>
       </c>
       <c r="U31" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>151.8239197480784</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>154.1921127789203</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>157.467092211966</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>16.14213605696636</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>105.0742887270134</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>795136.1784970292</v>
+        <v>795136.1784970291</v>
       </c>
     </row>
     <row r="8">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
+        <v>615476.7696748237</v>
+      </c>
+      <c r="F2" t="n">
+        <v>615476.7696748235</v>
+      </c>
+      <c r="G2" t="n">
+        <v>615476.7696748236</v>
+      </c>
+      <c r="H2" t="n">
+        <v>615476.7696748234</v>
+      </c>
+      <c r="I2" t="n">
+        <v>615476.7696748243</v>
+      </c>
+      <c r="J2" t="n">
+        <v>615476.7696748235</v>
+      </c>
+      <c r="K2" t="n">
+        <v>615476.7696748234</v>
+      </c>
+      <c r="L2" t="n">
+        <v>615476.7696748234</v>
+      </c>
+      <c r="M2" t="n">
         <v>615476.7696748239</v>
       </c>
-      <c r="F2" t="n">
-        <v>615476.7696748237</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
         <v>615476.7696748235</v>
       </c>
-      <c r="H2" t="n">
-        <v>615476.7696748237</v>
-      </c>
-      <c r="I2" t="n">
-        <v>615476.7696748236</v>
-      </c>
-      <c r="J2" t="n">
-        <v>615476.7696748239</v>
-      </c>
-      <c r="K2" t="n">
-        <v>615476.7696748236</v>
-      </c>
-      <c r="L2" t="n">
-        <v>615476.7696748237</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615476.7696748236</v>
-      </c>
-      <c r="N2" t="n">
-        <v>615476.7696748236</v>
-      </c>
       <c r="O2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.769674824</v>
       </c>
       <c r="P2" t="n">
         <v>615476.7696748236</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="J4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26484,31 +26484,31 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228726.1820255637</v>
+        <v>-228726.1820255639</v>
       </c>
       <c r="C6" t="n">
-        <v>361241.6971889803</v>
+        <v>361241.6971889806</v>
       </c>
       <c r="D6" t="n">
         <v>361241.6971889804</v>
       </c>
       <c r="E6" t="n">
-        <v>-230575.7254716463</v>
+        <v>-229970.9660596145</v>
       </c>
       <c r="F6" t="n">
-        <v>496801.6885217603</v>
+        <v>497406.4479337924</v>
       </c>
       <c r="G6" t="n">
-        <v>496801.6885217603</v>
+        <v>497406.4479337923</v>
       </c>
       <c r="H6" t="n">
-        <v>496801.6885217603</v>
+        <v>497406.4479337921</v>
       </c>
       <c r="I6" t="n">
-        <v>496801.6885217601</v>
+        <v>497406.447933793</v>
       </c>
       <c r="J6" t="n">
-        <v>320378.4693291673</v>
+        <v>320983.2287411994</v>
       </c>
       <c r="K6" t="n">
-        <v>496801.6885217602</v>
+        <v>497406.4479337921</v>
       </c>
       <c r="L6" t="n">
-        <v>496801.6885217603</v>
+        <v>497406.4479337921</v>
       </c>
       <c r="M6" t="n">
-        <v>367159.3736828155</v>
+        <v>367764.1330948477</v>
       </c>
       <c r="N6" t="n">
-        <v>496801.6885217602</v>
+        <v>497406.4479337922</v>
       </c>
       <c r="O6" t="n">
-        <v>496801.6885217602</v>
+        <v>497406.4479337927</v>
       </c>
       <c r="P6" t="n">
-        <v>496801.6885217602</v>
+        <v>497406.4479337923</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>158.9993246194568</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>99.1084150172357</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.98780970275089</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>2.658284613561989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>225.8344915517609</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>96.11462382895159</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.11462382895135</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>332.5629102563062</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>16.25857125419503</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>19.88405377167465</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.806844538052008</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33037,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34456,7 +34456,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>89.2320208001448</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>625.2391015115037</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>330.4989635121724</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>648.21348805732</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>420.9083957314504</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36685,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115028</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37077,22 +37077,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>742.1016362021759</v>
+        <v>591.7850509906382</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37317,10 +37317,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>897.0044190605952</v>
       </c>
       <c r="O35" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>800.292698040015</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38104,7 +38104,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
